--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9584923333333334</v>
+        <v>3.157093666666667</v>
       </c>
       <c r="H2">
-        <v>2.875477</v>
+        <v>9.471281000000001</v>
       </c>
       <c r="I2">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433163</v>
       </c>
       <c r="J2">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433162</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N2">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O2">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P2">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q2">
-        <v>5.175064329353111</v>
+        <v>17.61182702457345</v>
       </c>
       <c r="R2">
-        <v>46.57557896417799</v>
+        <v>158.506443221161</v>
       </c>
       <c r="S2">
-        <v>0.04615371645492655</v>
+        <v>0.09308116428121767</v>
       </c>
       <c r="T2">
-        <v>0.04615371645492655</v>
+        <v>0.09308116428121768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9584923333333334</v>
+        <v>3.157093666666667</v>
       </c>
       <c r="H3">
-        <v>2.875477</v>
+        <v>9.471281000000001</v>
       </c>
       <c r="I3">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433163</v>
       </c>
       <c r="J3">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433162</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.113427</v>
       </c>
       <c r="O3">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P3">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q3">
-        <v>3.550711525519889</v>
+        <v>11.69537666555411</v>
       </c>
       <c r="R3">
-        <v>31.956403729679</v>
+        <v>105.258389989987</v>
       </c>
       <c r="S3">
-        <v>0.03166695571928662</v>
+        <v>0.06181183106206031</v>
       </c>
       <c r="T3">
-        <v>0.03166695571928661</v>
+        <v>0.06181183106206031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9584923333333334</v>
+        <v>3.157093666666667</v>
       </c>
       <c r="H4">
-        <v>2.875477</v>
+        <v>9.471281000000001</v>
       </c>
       <c r="I4">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433163</v>
       </c>
       <c r="J4">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433162</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N4">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O4">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P4">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q4">
-        <v>6.107385029524778</v>
+        <v>78.21055406822212</v>
       </c>
       <c r="R4">
-        <v>54.966465265723</v>
+        <v>703.8949866139992</v>
       </c>
       <c r="S4">
-        <v>0.0544686015466372</v>
+        <v>0.4133545839163474</v>
       </c>
       <c r="T4">
-        <v>0.05446860154663719</v>
+        <v>0.4133545839163476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9584923333333334</v>
+        <v>3.157093666666667</v>
       </c>
       <c r="H5">
-        <v>2.875477</v>
+        <v>9.471281000000001</v>
       </c>
       <c r="I5">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433163</v>
       </c>
       <c r="J5">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433162</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N5">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O5">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P5">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q5">
-        <v>0.6057224250244444</v>
+        <v>1.354728887293222</v>
       </c>
       <c r="R5">
-        <v>5.451501825219999</v>
+        <v>12.192559985639</v>
       </c>
       <c r="S5">
-        <v>0.005402124355517584</v>
+        <v>0.007159946661905496</v>
       </c>
       <c r="T5">
-        <v>0.005402124355517584</v>
+        <v>0.007159946661905497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9584923333333334</v>
+        <v>3.157093666666667</v>
       </c>
       <c r="H6">
-        <v>2.875477</v>
+        <v>9.471281000000001</v>
       </c>
       <c r="I6">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433163</v>
       </c>
       <c r="J6">
-        <v>0.2532195598902293</v>
+        <v>0.8981781966433162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N6">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O6">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P6">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q6">
-        <v>12.95379256885022</v>
+        <v>61.07123031017667</v>
       </c>
       <c r="R6">
-        <v>116.584133119652</v>
+        <v>549.6410727915901</v>
       </c>
       <c r="S6">
-        <v>0.1155281618138613</v>
+        <v>0.3227706707217853</v>
       </c>
       <c r="T6">
-        <v>0.1155281618138613</v>
+        <v>0.3227706707217853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.82673</v>
+        <v>0.3579033333333333</v>
       </c>
       <c r="H7">
-        <v>8.48019</v>
+        <v>1.07371</v>
       </c>
       <c r="I7">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="J7">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N7">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O7">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P7">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q7">
-        <v>15.26199958307333</v>
+        <v>1.996561478278889</v>
       </c>
       <c r="R7">
-        <v>137.35799624766</v>
+        <v>17.96905330451</v>
       </c>
       <c r="S7">
-        <v>0.1361138638020417</v>
+        <v>0.01055212878811073</v>
       </c>
       <c r="T7">
-        <v>0.1361138638020417</v>
+        <v>0.01055212878811073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.82673</v>
+        <v>0.3579033333333333</v>
       </c>
       <c r="H8">
-        <v>8.48019</v>
+        <v>1.07371</v>
       </c>
       <c r="I8">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="J8">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>11.113427</v>
       </c>
       <c r="O8">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P8">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q8">
-        <v>10.47155250123667</v>
+        <v>1.325844189352222</v>
       </c>
       <c r="R8">
-        <v>94.24397251113</v>
+        <v>11.93259770417</v>
       </c>
       <c r="S8">
-        <v>0.09339034922593267</v>
+        <v>0.007007286673222424</v>
       </c>
       <c r="T8">
-        <v>0.09339034922593266</v>
+        <v>0.007007286673222425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.82673</v>
+        <v>0.3579033333333333</v>
       </c>
       <c r="H9">
-        <v>8.48019</v>
+        <v>1.07371</v>
       </c>
       <c r="I9">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="J9">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N9">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O9">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P9">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q9">
-        <v>18.01154572042333</v>
+        <v>8.866324841232222</v>
       </c>
       <c r="R9">
-        <v>162.10391148381</v>
+        <v>79.79692357109001</v>
       </c>
       <c r="S9">
-        <v>0.1606356406779735</v>
+        <v>0.04685986513300801</v>
       </c>
       <c r="T9">
-        <v>0.1606356406779735</v>
+        <v>0.04685986513300804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.82673</v>
+        <v>0.3579033333333333</v>
       </c>
       <c r="H10">
-        <v>8.48019</v>
+        <v>1.07371</v>
       </c>
       <c r="I10">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="J10">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N10">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O10">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P10">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q10">
-        <v>1.786361445933333</v>
+        <v>0.1535785870544444</v>
       </c>
       <c r="R10">
-        <v>16.0772530134</v>
+        <v>1.38220728349</v>
       </c>
       <c r="S10">
-        <v>0.01593163184348776</v>
+        <v>0.0008116860148436677</v>
       </c>
       <c r="T10">
-        <v>0.01593163184348776</v>
+        <v>0.0008116860148436679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.82673</v>
+        <v>0.3579033333333333</v>
       </c>
       <c r="H11">
-        <v>8.48019</v>
+        <v>1.07371</v>
       </c>
       <c r="I11">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="J11">
-        <v>0.7467804401097707</v>
+        <v>0.1018218033566837</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N11">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O11">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P11">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q11">
-        <v>38.20257376582667</v>
+        <v>6.923328607433333</v>
       </c>
       <c r="R11">
-        <v>343.82316389244</v>
+        <v>62.30995746689999</v>
       </c>
       <c r="S11">
-        <v>0.340708954560335</v>
+        <v>0.03659083674749888</v>
       </c>
       <c r="T11">
-        <v>0.340708954560335</v>
+        <v>0.03659083674749889</v>
       </c>
     </row>
   </sheetData>
